--- a/medicine/Soins infirmiers et profession infirmière/Centre_hospitalier_universitaire_de_Rennes/Centre_hospitalier_universitaire_de_Rennes.xlsx
+++ b/medicine/Soins infirmiers et profession infirmière/Centre_hospitalier_universitaire_de_Rennes/Centre_hospitalier_universitaire_de_Rennes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le centre hospitalier universitaire de Rennes (ou CHU de Rennes) est un centre hospitalier universitaire situé à Rennes en France.
@@ -512,11 +524,13 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En 2021, il emploie près de 9 900 personnes et a une capacité de 1 800 lits et places[1]. Il est devenu le premier employeur du pays de Rennes[2] et de Bretagne[3]. Il est l’un des 42 hôpitaux français possédant un robot médical Da Vinci.
-En 2021, le CHU de Rennes est classé dans les 10 meilleurs hôpitaux de France dans une étude comprenant plus de 60 pathologies[4].
-En 2023, le CHU est victime d'une attaque informatique[5],[6].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 2021, il emploie près de 9 900 personnes et a une capacité de 1 800 lits et places. Il est devenu le premier employeur du pays de Rennes et de Bretagne. Il est l’un des 42 hôpitaux français possédant un robot médical Da Vinci.
+En 2021, le CHU de Rennes est classé dans les 10 meilleurs hôpitaux de France dans une étude comprenant plus de 60 pathologies.
+En 2023, le CHU est victime d'une attaque informatique,.
 </t>
         </is>
       </c>
@@ -545,15 +559,17 @@
           <t>Localisation</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En 2019, le CHU de Rennes est implanté sur cinq sites à Rennes[7] :
-l'hôpital de Pontchaillou, à Villejean[8]
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 2019, le CHU de Rennes est implanté sur cinq sites à Rennes :
+l'hôpital de Pontchaillou, à Villejean
 l'hôpital Sud, dans le quartier Sainte-Élisabeth
-l'hôtel-Dieu, quartier Dinan - Saint-Malo[9]
+l'hôtel-Dieu, quartier Dinan - Saint-Malo
 la Tauvrais, à la Bellangerais
-le centre de soins dentaires, installé à l'hôpital de Pontchaillou (anciennement installé à l'hôtel Pasteur dans le quartier Thabor - Paris de 1969 à 2018)[10].
-Ces 5 sites seront regroupés sur un seul site, celui de Pontchaillou, à horizon 2026[11].
+le centre de soins dentaires, installé à l'hôpital de Pontchaillou (anciennement installé à l'hôtel Pasteur dans le quartier Thabor - Paris de 1969 à 2018).
+Ces 5 sites seront regroupés sur un seul site, celui de Pontchaillou, à horizon 2026.
 </t>
         </is>
       </c>
@@ -582,9 +598,11 @@
           <t>Activité de formation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le CHU compte dix instituts de formation ou écoles qui forment plus de 1 000 professionnels de la santé[12] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Le CHU compte dix instituts de formation ou écoles qui forment plus de 1 000 professionnels de la santé :
 IFSI - Institut de formation en soins infirmiers
 IFAS - Institut de formation des aides-soignants
 IFA - Institut de formation des ambulanciers
@@ -594,9 +612,43 @@
 École de puéricultrices
 École de sages-femmes
 IFCS - Institut de formation des cadres de santé
-CFARM - Centre de formation des assistants de régulation médicale
-La formation médicale
-Le CHU accueille près de 4000 étudiants en médecine, pharmacie, odontologie. Leur formation est assurée en lien avec les UFR de médecine, de pharmacie et d'odontologie de l'université de Rennes 1[13].
+CFARM - Centre de formation des assistants de régulation médicale</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Centre_hospitalier_universitaire_de_Rennes</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Soins infirmiers et profession infirmière/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Centre_hospitalier_universitaire_de_Rennes</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Activité de formation</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>La formation médicale</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le CHU accueille près de 4000 étudiants en médecine, pharmacie, odontologie. Leur formation est assurée en lien avec les UFR de médecine, de pharmacie et d'odontologie de l'université de Rennes 1.
 </t>
         </is>
       </c>
